--- a/11 NoCode/PowerApps/CarRental.xlsx
+++ b/11 NoCode/PowerApps/CarRental.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPO365ClientDev\12 NoCode\PowerApps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPO365ClientDev\11 NoCode\PowerApps\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -108,7 +108,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -119,6 +126,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E4" totalsRowShown="0">
+  <autoFilter ref="A1:E4"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Dog"/>
+    <tableColumn id="2" name="Car"/>
+    <tableColumn id="3" name="From" dataDxfId="1"/>
+    <tableColumn id="4" name="To" dataDxfId="0"/>
+    <tableColumn id="5" name="Comment"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,15 +408,16 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -468,5 +490,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>